--- a/Brasil/IRF/VAR/Narrative_MP_Brazil_Dataset_with_Controls.xlsx
+++ b/Brasil/IRF/VAR/Narrative_MP_Brazil_Dataset_with_Controls.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelbandeira/Dropbox/Professional activities/Student Supervision/Ongoing/MPE/Mateus de Melo Hachul (Insper MPE)/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alysson\Documents\GitHub\Monetary-Shocks\Brasil\IRF\VAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0764076-D825-D94A-9C0C-D0F479653B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E7D79-6841-4DE6-A389-322AA45B43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{69269AE8-0F0E-467B-AC10-BDD27D0B37BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69269AE8-0F0E-467B-AC10-BDD27D0B37BE}"/>
   </bookViews>
   <sheets>
     <sheet name="IPCA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IPCA!$A$1:$N$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IPCA!$A$1:$AB$235</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -113,6 +112,15 @@
   </si>
   <si>
     <t>ff4_tc</t>
+  </si>
+  <si>
+    <t>D_greve</t>
+  </si>
+  <si>
+    <t>D_covid</t>
+  </si>
+  <si>
+    <t>D_GFC</t>
   </si>
 </sst>
 </file>
@@ -221,7 +229,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,30 +541,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33DB85E-4A58-4A28-8896-FF492F1FA802}">
-  <dimension ref="A1:Y235"/>
+  <dimension ref="A1:AB235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.109375" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5" customWidth="1"/>
-    <col min="23" max="23" width="10.1640625" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
     <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,8 +640,17 @@
       <c r="Y1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>37652</v>
       </c>
@@ -716,8 +733,17 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37680</v>
       </c>
@@ -801,8 +827,17 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>37711</v>
       </c>
@@ -886,8 +921,17 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>37741</v>
       </c>
@@ -971,8 +1015,17 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>37772</v>
       </c>
@@ -1056,8 +1109,17 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>37802</v>
       </c>
@@ -1141,8 +1203,17 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37833</v>
       </c>
@@ -1226,8 +1297,17 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37864</v>
       </c>
@@ -1311,8 +1391,17 @@
       <c r="Y9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>37894</v>
       </c>
@@ -1396,8 +1485,17 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>37925</v>
       </c>
@@ -1481,8 +1579,17 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>37955</v>
       </c>
@@ -1566,8 +1673,17 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>37986</v>
       </c>
@@ -1651,8 +1767,17 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>38017</v>
       </c>
@@ -1736,8 +1861,17 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>38046</v>
       </c>
@@ -1821,8 +1955,17 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>38077</v>
       </c>
@@ -1906,8 +2049,17 @@
       <c r="Y16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>38107</v>
       </c>
@@ -1991,8 +2143,17 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>38138</v>
       </c>
@@ -2076,8 +2237,17 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>38168</v>
       </c>
@@ -2161,8 +2331,17 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38199</v>
       </c>
@@ -2246,8 +2425,17 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>38230</v>
       </c>
@@ -2331,8 +2519,17 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>38260</v>
       </c>
@@ -2416,8 +2613,17 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>38291</v>
       </c>
@@ -2501,8 +2707,17 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>38321</v>
       </c>
@@ -2586,8 +2801,17 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>38352</v>
       </c>
@@ -2671,8 +2895,17 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>38383</v>
       </c>
@@ -2756,8 +2989,17 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>38411</v>
       </c>
@@ -2841,8 +3083,17 @@
       <c r="Y27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>38442</v>
       </c>
@@ -2926,8 +3177,17 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>38472</v>
       </c>
@@ -3011,8 +3271,17 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>38503</v>
       </c>
@@ -3096,8 +3365,17 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>38533</v>
       </c>
@@ -3181,8 +3459,17 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>38564</v>
       </c>
@@ -3266,8 +3553,17 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>38595</v>
       </c>
@@ -3351,8 +3647,17 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>38625</v>
       </c>
@@ -3436,8 +3741,17 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>38656</v>
       </c>
@@ -3521,8 +3835,17 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>38686</v>
       </c>
@@ -3606,8 +3929,17 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>38717</v>
       </c>
@@ -3691,8 +4023,17 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38748</v>
       </c>
@@ -3776,8 +4117,17 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38776</v>
       </c>
@@ -3861,8 +4211,17 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38807</v>
       </c>
@@ -3946,8 +4305,17 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38837</v>
       </c>
@@ -4031,8 +4399,17 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38868</v>
       </c>
@@ -4116,8 +4493,17 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>38898</v>
       </c>
@@ -4201,8 +4587,17 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>38929</v>
       </c>
@@ -4286,8 +4681,17 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>38960</v>
       </c>
@@ -4371,8 +4775,17 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>38990</v>
       </c>
@@ -4456,8 +4869,17 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>39021</v>
       </c>
@@ -4541,8 +4963,17 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>39051</v>
       </c>
@@ -4626,8 +5057,17 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>39082</v>
       </c>
@@ -4711,8 +5151,17 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>39113</v>
       </c>
@@ -4796,8 +5245,17 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>39141</v>
       </c>
@@ -4881,8 +5339,17 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>39172</v>
       </c>
@@ -4966,8 +5433,17 @@
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>39202</v>
       </c>
@@ -5051,8 +5527,17 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>39233</v>
       </c>
@@ -5136,8 +5621,17 @@
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>39263</v>
       </c>
@@ -5221,8 +5715,17 @@
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>39294</v>
       </c>
@@ -5306,8 +5809,17 @@
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>39325</v>
       </c>
@@ -5391,8 +5903,17 @@
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>39355</v>
       </c>
@@ -5476,8 +5997,17 @@
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>39386</v>
       </c>
@@ -5561,8 +6091,17 @@
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>39416</v>
       </c>
@@ -5646,8 +6185,17 @@
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>39447</v>
       </c>
@@ -5731,8 +6279,17 @@
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>39478</v>
       </c>
@@ -5816,8 +6373,17 @@
       <c r="Y62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>39507</v>
       </c>
@@ -5901,8 +6467,17 @@
       <c r="Y63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>39538</v>
       </c>
@@ -5986,8 +6561,17 @@
       <c r="Y64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>39568</v>
       </c>
@@ -6071,8 +6655,17 @@
       <c r="Y65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>39599</v>
       </c>
@@ -6156,8 +6749,17 @@
       <c r="Y66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>39629</v>
       </c>
@@ -6241,8 +6843,17 @@
       <c r="Y67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>39660</v>
       </c>
@@ -6326,8 +6937,17 @@
       <c r="Y68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>39691</v>
       </c>
@@ -6411,8 +7031,17 @@
       <c r="Y69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>39721</v>
       </c>
@@ -6496,8 +7125,17 @@
       <c r="Y70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>39752</v>
       </c>
@@ -6581,8 +7219,17 @@
       <c r="Y71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>39782</v>
       </c>
@@ -6666,8 +7313,17 @@
       <c r="Y72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>39813</v>
       </c>
@@ -6751,8 +7407,17 @@
       <c r="Y73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>39844</v>
       </c>
@@ -6836,8 +7501,17 @@
       <c r="Y74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>39872</v>
       </c>
@@ -6921,8 +7595,17 @@
       <c r="Y75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>39903</v>
       </c>
@@ -7006,8 +7689,17 @@
       <c r="Y76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>39933</v>
       </c>
@@ -7091,8 +7783,17 @@
       <c r="Y77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>39964</v>
       </c>
@@ -7176,8 +7877,17 @@
       <c r="Y78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>39994</v>
       </c>
@@ -7261,8 +7971,17 @@
       <c r="Y79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>40025</v>
       </c>
@@ -7346,8 +8065,17 @@
       <c r="Y80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>40056</v>
       </c>
@@ -7431,8 +8159,17 @@
       <c r="Y81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>40086</v>
       </c>
@@ -7516,8 +8253,17 @@
       <c r="Y82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>40117</v>
       </c>
@@ -7601,8 +8347,17 @@
       <c r="Y83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>40147</v>
       </c>
@@ -7686,8 +8441,17 @@
       <c r="Y84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>40178</v>
       </c>
@@ -7771,8 +8535,17 @@
       <c r="Y85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>40209</v>
       </c>
@@ -7856,8 +8629,17 @@
       <c r="Y86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>40237</v>
       </c>
@@ -7941,8 +8723,17 @@
       <c r="Y87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>40268</v>
       </c>
@@ -8026,8 +8817,17 @@
       <c r="Y88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>40298</v>
       </c>
@@ -8111,8 +8911,17 @@
       <c r="Y89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>40329</v>
       </c>
@@ -8196,8 +9005,17 @@
       <c r="Y90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>40359</v>
       </c>
@@ -8281,8 +9099,17 @@
       <c r="Y91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>40390</v>
       </c>
@@ -8366,8 +9193,17 @@
       <c r="Y92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>40421</v>
       </c>
@@ -8451,8 +9287,17 @@
       <c r="Y93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>40451</v>
       </c>
@@ -8536,8 +9381,17 @@
       <c r="Y94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>40482</v>
       </c>
@@ -8621,8 +9475,17 @@
       <c r="Y95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>40512</v>
       </c>
@@ -8706,8 +9569,17 @@
       <c r="Y96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>40543</v>
       </c>
@@ -8791,8 +9663,17 @@
       <c r="Y97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>40574</v>
       </c>
@@ -8876,8 +9757,17 @@
       <c r="Y98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>40602</v>
       </c>
@@ -8961,8 +9851,17 @@
       <c r="Y99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>40633</v>
       </c>
@@ -9046,8 +9945,17 @@
       <c r="Y100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>40663</v>
       </c>
@@ -9131,8 +10039,17 @@
       <c r="Y101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>40694</v>
       </c>
@@ -9216,8 +10133,17 @@
       <c r="Y102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>40724</v>
       </c>
@@ -9301,8 +10227,17 @@
       <c r="Y103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>40755</v>
       </c>
@@ -9386,8 +10321,17 @@
       <c r="Y104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>40786</v>
       </c>
@@ -9471,8 +10415,17 @@
       <c r="Y105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>40816</v>
       </c>
@@ -9556,8 +10509,17 @@
       <c r="Y106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>40847</v>
       </c>
@@ -9641,8 +10603,17 @@
       <c r="Y107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>40877</v>
       </c>
@@ -9726,8 +10697,17 @@
       <c r="Y108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>40908</v>
       </c>
@@ -9811,8 +10791,17 @@
       <c r="Y109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>40939</v>
       </c>
@@ -9896,8 +10885,17 @@
       <c r="Y110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>40968</v>
       </c>
@@ -9981,8 +10979,17 @@
       <c r="Y111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>40999</v>
       </c>
@@ -10066,8 +11073,17 @@
       <c r="Y112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>41029</v>
       </c>
@@ -10151,8 +11167,17 @@
       <c r="Y113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>41060</v>
       </c>
@@ -10236,8 +11261,17 @@
       <c r="Y114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>41090</v>
       </c>
@@ -10321,8 +11355,17 @@
       <c r="Y115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>41121</v>
       </c>
@@ -10406,8 +11449,17 @@
       <c r="Y116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>41152</v>
       </c>
@@ -10491,8 +11543,17 @@
       <c r="Y117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>41182</v>
       </c>
@@ -10576,8 +11637,17 @@
       <c r="Y118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>41213</v>
       </c>
@@ -10661,8 +11731,17 @@
       <c r="Y119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>41243</v>
       </c>
@@ -10746,8 +11825,17 @@
       <c r="Y120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>41274</v>
       </c>
@@ -10831,8 +11919,17 @@
       <c r="Y121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>41305</v>
       </c>
@@ -10916,8 +12013,17 @@
       <c r="Y122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>41333</v>
       </c>
@@ -11001,8 +12107,17 @@
       <c r="Y123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>41364</v>
       </c>
@@ -11086,8 +12201,17 @@
       <c r="Y124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>41394</v>
       </c>
@@ -11171,8 +12295,17 @@
       <c r="Y125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>41425</v>
       </c>
@@ -11256,8 +12389,17 @@
       <c r="Y126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>41455</v>
       </c>
@@ -11341,8 +12483,17 @@
       <c r="Y127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>41486</v>
       </c>
@@ -11426,8 +12577,17 @@
       <c r="Y128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>41517</v>
       </c>
@@ -11511,8 +12671,17 @@
       <c r="Y129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>41547</v>
       </c>
@@ -11596,8 +12765,17 @@
       <c r="Y130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>41578</v>
       </c>
@@ -11681,8 +12859,17 @@
       <c r="Y131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>41608</v>
       </c>
@@ -11766,8 +12953,17 @@
       <c r="Y132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>41639</v>
       </c>
@@ -11851,8 +13047,17 @@
       <c r="Y133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>41670</v>
       </c>
@@ -11936,8 +13141,17 @@
       <c r="Y134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>41698</v>
       </c>
@@ -12021,8 +13235,17 @@
       <c r="Y135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>41729</v>
       </c>
@@ -12106,8 +13329,17 @@
       <c r="Y136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>41759</v>
       </c>
@@ -12191,8 +13423,17 @@
       <c r="Y137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>41790</v>
       </c>
@@ -12276,8 +13517,17 @@
       <c r="Y138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>41820</v>
       </c>
@@ -12361,8 +13611,17 @@
       <c r="Y139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>41851</v>
       </c>
@@ -12446,8 +13705,17 @@
       <c r="Y140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>41882</v>
       </c>
@@ -12531,8 +13799,17 @@
       <c r="Y141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>41912</v>
       </c>
@@ -12616,8 +13893,17 @@
       <c r="Y142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>41943</v>
       </c>
@@ -12701,8 +13987,17 @@
       <c r="Y143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>41973</v>
       </c>
@@ -12786,8 +14081,17 @@
       <c r="Y144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>42004</v>
       </c>
@@ -12871,8 +14175,17 @@
       <c r="Y145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>42035</v>
       </c>
@@ -12956,8 +14269,17 @@
       <c r="Y146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>42063</v>
       </c>
@@ -13041,8 +14363,17 @@
       <c r="Y147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42094</v>
       </c>
@@ -13126,8 +14457,17 @@
       <c r="Y148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42124</v>
       </c>
@@ -13211,8 +14551,17 @@
       <c r="Y149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42155</v>
       </c>
@@ -13296,8 +14645,17 @@
       <c r="Y150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42185</v>
       </c>
@@ -13381,8 +14739,17 @@
       <c r="Y151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42216</v>
       </c>
@@ -13466,8 +14833,17 @@
       <c r="Y152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42247</v>
       </c>
@@ -13551,8 +14927,17 @@
       <c r="Y153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>42277</v>
       </c>
@@ -13636,8 +15021,17 @@
       <c r="Y154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>42308</v>
       </c>
@@ -13721,8 +15115,17 @@
       <c r="Y155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42338</v>
       </c>
@@ -13806,8 +15209,17 @@
       <c r="Y156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42369</v>
       </c>
@@ -13891,8 +15303,17 @@
       <c r="Y157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>42400</v>
       </c>
@@ -13976,8 +15397,17 @@
       <c r="Y158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>42429</v>
       </c>
@@ -14061,8 +15491,17 @@
       <c r="Y159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>42460</v>
       </c>
@@ -14146,8 +15585,17 @@
       <c r="Y160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>42490</v>
       </c>
@@ -14231,8 +15679,17 @@
       <c r="Y161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>42521</v>
       </c>
@@ -14316,8 +15773,17 @@
       <c r="Y162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>42551</v>
       </c>
@@ -14401,8 +15867,17 @@
       <c r="Y163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>42582</v>
       </c>
@@ -14486,8 +15961,17 @@
       <c r="Y164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>42613</v>
       </c>
@@ -14571,8 +16055,17 @@
       <c r="Y165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>42643</v>
       </c>
@@ -14656,8 +16149,17 @@
       <c r="Y166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>42674</v>
       </c>
@@ -14741,8 +16243,17 @@
       <c r="Y167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>42704</v>
       </c>
@@ -14826,8 +16337,17 @@
       <c r="Y168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>42735</v>
       </c>
@@ -14911,8 +16431,17 @@
       <c r="Y169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>42766</v>
       </c>
@@ -14996,8 +16525,17 @@
       <c r="Y170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42794</v>
       </c>
@@ -15081,8 +16619,17 @@
       <c r="Y171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42825</v>
       </c>
@@ -15166,8 +16713,17 @@
       <c r="Y172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42855</v>
       </c>
@@ -15251,8 +16807,17 @@
       <c r="Y173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42886</v>
       </c>
@@ -15336,8 +16901,17 @@
       <c r="Y174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42916</v>
       </c>
@@ -15421,8 +16995,17 @@
       <c r="Y175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42947</v>
       </c>
@@ -15506,8 +17089,17 @@
       <c r="Y176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42978</v>
       </c>
@@ -15591,8 +17183,17 @@
       <c r="Y177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>43008</v>
       </c>
@@ -15676,8 +17277,17 @@
       <c r="Y178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>43039</v>
       </c>
@@ -15761,8 +17371,17 @@
       <c r="Y179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>43069</v>
       </c>
@@ -15846,8 +17465,17 @@
       <c r="Y180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>43100</v>
       </c>
@@ -15931,8 +17559,17 @@
       <c r="Y181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>43131</v>
       </c>
@@ -16016,8 +17653,17 @@
       <c r="Y182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>43159</v>
       </c>
@@ -16101,8 +17747,17 @@
       <c r="Y183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>43190</v>
       </c>
@@ -16186,8 +17841,17 @@
       <c r="Y184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>43220</v>
       </c>
@@ -16271,8 +17935,17 @@
       <c r="Y185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+      <c r="AB185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>43251</v>
       </c>
@@ -16356,8 +18029,17 @@
       <c r="Y186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z186">
+        <v>1</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>43281</v>
       </c>
@@ -16441,8 +18123,17 @@
       <c r="Y187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>43312</v>
       </c>
@@ -16526,8 +18217,17 @@
       <c r="Y188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>43343</v>
       </c>
@@ -16611,8 +18311,17 @@
       <c r="Y189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>43373</v>
       </c>
@@ -16696,8 +18405,17 @@
       <c r="Y190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>43404</v>
       </c>
@@ -16781,8 +18499,17 @@
       <c r="Y191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+      <c r="AB191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>43434</v>
       </c>
@@ -16866,8 +18593,17 @@
       <c r="Y192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>43465</v>
       </c>
@@ -16951,8 +18687,17 @@
       <c r="Y193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>43496</v>
       </c>
@@ -17036,8 +18781,17 @@
       <c r="Y194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>43524</v>
       </c>
@@ -17121,8 +18875,17 @@
       <c r="Y195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>43555</v>
       </c>
@@ -17206,8 +18969,17 @@
       <c r="Y196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>43585</v>
       </c>
@@ -17291,8 +19063,17 @@
       <c r="Y197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>43616</v>
       </c>
@@ -17376,8 +19157,17 @@
       <c r="Y198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>43646</v>
       </c>
@@ -17461,8 +19251,17 @@
       <c r="Y199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>43677</v>
       </c>
@@ -17546,8 +19345,17 @@
       <c r="Y200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>43708</v>
       </c>
@@ -17631,8 +19439,17 @@
       <c r="Y201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>43738</v>
       </c>
@@ -17716,8 +19533,17 @@
       <c r="Y202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>43769</v>
       </c>
@@ -17801,8 +19627,17 @@
       <c r="Y203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+      <c r="AB203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>43799</v>
       </c>
@@ -17886,8 +19721,17 @@
       <c r="Y204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>43830</v>
       </c>
@@ -17971,8 +19815,17 @@
       <c r="Y205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>43861</v>
       </c>
@@ -18056,8 +19909,17 @@
       <c r="Y206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>1</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>43890</v>
       </c>
@@ -18141,8 +20003,17 @@
       <c r="Y207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>1</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>43921</v>
       </c>
@@ -18226,8 +20097,17 @@
       <c r="Y208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>1</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>43951</v>
       </c>
@@ -18311,8 +20191,17 @@
       <c r="Y209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>1</v>
+      </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>43982</v>
       </c>
@@ -18396,8 +20285,17 @@
       <c r="Y210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>1</v>
+      </c>
+      <c r="AB210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44012</v>
       </c>
@@ -18481,8 +20379,17 @@
       <c r="Y211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>1</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44043</v>
       </c>
@@ -18566,8 +20473,17 @@
       <c r="Y212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>1</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44074</v>
       </c>
@@ -18651,8 +20567,17 @@
       <c r="Y213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>1</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44104</v>
       </c>
@@ -18736,8 +20661,17 @@
       <c r="Y214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>1</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44135</v>
       </c>
@@ -18821,8 +20755,17 @@
       <c r="Y215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>1</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44165</v>
       </c>
@@ -18906,8 +20849,17 @@
       <c r="Y216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>1</v>
+      </c>
+      <c r="AB216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44196</v>
       </c>
@@ -18991,8 +20943,17 @@
       <c r="Y217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>1</v>
+      </c>
+      <c r="AB217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44227</v>
       </c>
@@ -19076,8 +21037,17 @@
       <c r="Y218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+      <c r="AB218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44255</v>
       </c>
@@ -19161,8 +21131,17 @@
       <c r="Y219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44286</v>
       </c>
@@ -19246,8 +21225,17 @@
       <c r="Y220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44316</v>
       </c>
@@ -19331,8 +21319,17 @@
       <c r="Y221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44347</v>
       </c>
@@ -19416,8 +21413,17 @@
       <c r="Y222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44377</v>
       </c>
@@ -19501,8 +21507,17 @@
       <c r="Y223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44408</v>
       </c>
@@ -19586,8 +21601,17 @@
       <c r="Y224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44439</v>
       </c>
@@ -19671,8 +21695,17 @@
       <c r="Y225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44469</v>
       </c>
@@ -19756,8 +21789,17 @@
       <c r="Y226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44500</v>
       </c>
@@ -19841,8 +21883,17 @@
       <c r="Y227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44530</v>
       </c>
@@ -19926,8 +21977,17 @@
       <c r="Y228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44561</v>
       </c>
@@ -20011,8 +22071,17 @@
       <c r="Y229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44592</v>
       </c>
@@ -20096,8 +22165,17 @@
       <c r="Y230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44620</v>
       </c>
@@ -20181,8 +22259,17 @@
       <c r="Y231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44651</v>
       </c>
@@ -20266,8 +22353,17 @@
       <c r="Y232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44681</v>
       </c>
@@ -20351,8 +22447,17 @@
       <c r="Y233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44712</v>
       </c>
@@ -20436,8 +22541,17 @@
       <c r="Y234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44742</v>
       </c>
@@ -20519,6 +22633,15 @@
         <v>0</v>
       </c>
       <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+      <c r="AB235">
         <v>0</v>
       </c>
     </row>
